--- a/jobs_data.xlsx
+++ b/jobs_data.xlsx
@@ -473,17 +473,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Billing supervisor</t>
+          <t>Business Development Manager</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AK Enterprises</t>
+          <t>K-ONN INDIA LLP</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Noida Sector 62, Noida, Uttar Pradesh</t>
+          <t>Mumbai, Maharashtra</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -493,38 +493,34 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Urgent hiring for work , every employer who is interested in this job. Contact urgently
-Job Types: Full-time, Part-time, Fresher, Freelance
-Contract length: 2 months
-Pay: From ₹19,500.00 per month
-Exp...</t>
+          <t>K-ONN INDIA LLP is a company bubbling with possibilities. Committed to make things happen through quality, innovation and affordability, K-ONN straightaway has imbibed its value system from its parent...</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>From ₹19,500 a month</t>
+          <t>₹30,000 - ₹40,000 a month</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://in.indeed.com/jobs?q=Management+Jobs&amp;l=&amp;from=searchOnHP&amp;vjk=19d444c38cadf2f1</t>
+          <t>https://in.indeed.com/jobs?q=Management+Jobs&amp;l=&amp;from=searchOnHP&amp;vjk=f024deb69b1b27f6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Global IT Service Director</t>
+          <t>Brand Manager</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Boston Consulting Group</t>
+          <t>World Of Crow</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Gurugram, Haryana</t>
+          <t>Ahmedabad, Gujarat</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -534,38 +530,34 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Urgent hiring for work , every employer who is interested in this job. Contact urgently
-Job Types: Full-time, Part-time, Fresher, Freelance
-Contract length: 2 months
-Pay: From ₹19,500.00 per month
-Exp...</t>
+          <t>K-ONN INDIA LLP is a company bubbling with possibilities. Committed to make things happen through quality, innovation and affordability, K-ONN straightaway has imbibed its value system from its parent...</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Not specified</t>
+          <t>₹30,000 - ₹35,000 a month</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://in.indeed.com/jobs?q=Management+Jobs&amp;l=&amp;from=searchOnHP&amp;vjk=19d444c38cadf2f1</t>
+          <t>https://in.indeed.com/jobs?q=Management+Jobs&amp;l=&amp;from=searchOnHP&amp;vjk=f024deb69b1b27f6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Procurement Lead</t>
+          <t>Billing supervisor</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GO DESi MANDI PRIVATE LIMITED</t>
+          <t>AK Enterprises</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Bengaluru District, Karnataka</t>
+          <t>Noida Sector 62, Noida, Uttar Pradesh</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -575,38 +567,34 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Urgent hiring for work , every employer who is interested in this job. Contact urgently
-Job Types: Full-time, Part-time, Fresher, Freelance
-Contract length: 2 months
-Pay: From ₹19,500.00 per month
-Exp...</t>
+          <t>K-ONN INDIA LLP is a company bubbling with possibilities. Committed to make things happen through quality, innovation and affordability, K-ONN straightaway has imbibed its value system from its parent...</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>₹80,000 - ₹85,000 a month</t>
+          <t>From ₹19,500 a month</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://in.indeed.com/jobs?q=Management+Jobs&amp;l=&amp;from=searchOnHP&amp;vjk=19d444c38cadf2f1</t>
+          <t>https://in.indeed.com/jobs?q=Management+Jobs&amp;l=&amp;from=searchOnHP&amp;vjk=f024deb69b1b27f6</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Corporate General Manager</t>
+          <t>Global Product Director</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Foxoso Hospitality Pvt Ltd</t>
+          <t>Boston Consulting Group</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Delhi, Delhi</t>
+          <t>Gurugram, Haryana</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -616,38 +604,34 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Urgent hiring for work , every employer who is interested in this job. Contact urgently
-Job Types: Full-time, Part-time, Fresher, Freelance
-Contract length: 2 months
-Pay: From ₹19,500.00 per month
-Exp...</t>
+          <t>K-ONN INDIA LLP is a company bubbling with possibilities. Committed to make things happen through quality, innovation and affordability, K-ONN straightaway has imbibed its value system from its parent...</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>₹1,50,000 - ₹1,75,000 a month</t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://in.indeed.com/jobs?q=Management+Jobs&amp;l=&amp;from=searchOnHP&amp;vjk=19d444c38cadf2f1</t>
+          <t>https://in.indeed.com/jobs?q=Management+Jobs&amp;l=&amp;from=searchOnHP&amp;vjk=f024deb69b1b27f6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Assistant Manager - Solar Asset Management - O&amp;M</t>
+          <t>Corporate General Manager</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGIE Energy and Services India Private Limited</t>
+          <t>Foxoso Hospitality Pvt Ltd</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pune, Maharashtra</t>
+          <t>Delhi, Delhi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -657,38 +641,34 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Urgent hiring for work , every employer who is interested in this job. Contact urgently
-Job Types: Full-time, Part-time, Fresher, Freelance
-Contract length: 2 months
-Pay: From ₹19,500.00 per month
-Exp...</t>
+          <t>K-ONN INDIA LLP is a company bubbling with possibilities. Committed to make things happen through quality, innovation and affordability, K-ONN straightaway has imbibed its value system from its parent...</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Not specified</t>
+          <t>₹1,50,000 - ₹1,75,000 a month</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://in.indeed.com/jobs?q=Management+Jobs&amp;l=&amp;from=searchOnHP&amp;vjk=19d444c38cadf2f1</t>
+          <t>https://in.indeed.com/jobs?q=Management+Jobs&amp;l=&amp;from=searchOnHP&amp;vjk=f024deb69b1b27f6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Opening for Warehouse Manager (From E-commerce industry)</t>
+          <t>Procurement Lead</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>M G Associates</t>
+          <t>GO DESi MANDI PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Gurugram, Haryana</t>
+          <t>Bengaluru District, Karnataka</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -698,33 +678,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Urgent hiring for work , every employer who is interested in this job. Contact urgently
-Job Types: Full-time, Part-time, Fresher, Freelance
-Contract length: 2 months
-Pay: From ₹19,500.00 per month
-Exp...</t>
+          <t>K-ONN INDIA LLP is a company bubbling with possibilities. Committed to make things happen through quality, innovation and affordability, K-ONN straightaway has imbibed its value system from its parent...</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>₹50,000 - ₹52,000 a month</t>
+          <t>₹80,000 - ₹85,000 a month</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://in.indeed.com/jobs?q=Management+Jobs&amp;l=&amp;from=searchOnHP&amp;vjk=19d444c38cadf2f1</t>
+          <t>https://in.indeed.com/jobs?q=Management+Jobs&amp;l=&amp;from=searchOnHP&amp;vjk=f024deb69b1b27f6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Administration Assistant Manager</t>
+          <t>Opening for Warehouse Manager (From E-commerce industry)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nando's</t>
+          <t>M G Associates</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -739,38 +715,34 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Urgent hiring for work , every employer who is interested in this job. Contact urgently
-Job Types: Full-time, Part-time, Fresher, Freelance
-Contract length: 2 months
-Pay: From ₹19,500.00 per month
-Exp...</t>
+          <t>K-ONN INDIA LLP is a company bubbling with possibilities. Committed to make things happen through quality, innovation and affordability, K-ONN straightaway has imbibed its value system from its parent...</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>₹40,000.00 - ₹55,521.17 a month</t>
+          <t>₹50,000 - ₹52,000 a month</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://in.indeed.com/jobs?q=Management+Jobs&amp;l=&amp;from=searchOnHP&amp;vjk=19d444c38cadf2f1</t>
+          <t>https://in.indeed.com/jobs?q=Management+Jobs&amp;l=&amp;from=searchOnHP&amp;vjk=f024deb69b1b27f6</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Store Manager</t>
+          <t>Supervisor</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Miniso</t>
+          <t>United Timber Works</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Delhi, Delhi</t>
+          <t>Yamunanagar, Haryana</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -780,21 +752,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Urgent hiring for work , every employer who is interested in this job. Contact urgently
-Job Types: Full-time, Part-time, Fresher, Freelance
-Contract length: 2 months
-Pay: From ₹19,500.00 per month
-Exp...</t>
+          <t>K-ONN INDIA LLP is a company bubbling with possibilities. Committed to make things happen through quality, innovation and affordability, K-ONN straightaway has imbibed its value system from its parent...</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>₹25,000 - ₹45,000 a month</t>
+          <t>₹13,000 - ₹14,000 a month</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://in.indeed.com/jobs?q=Management+Jobs&amp;l=&amp;from=searchOnHP&amp;vjk=19d444c38cadf2f1</t>
+          <t>https://in.indeed.com/jobs?q=Management+Jobs&amp;l=&amp;from=searchOnHP&amp;vjk=f024deb69b1b27f6</t>
         </is>
       </c>
     </row>
@@ -821,11 +789,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Urgent hiring for work , every employer who is interested in this job. Contact urgently
-Job Types: Full-time, Part-time, Fresher, Freelance
-Contract length: 2 months
-Pay: From ₹19,500.00 per month
-Exp...</t>
+          <t>K-ONN INDIA LLP is a company bubbling with possibilities. Committed to make things happen through quality, innovation and affordability, K-ONN straightaway has imbibed its value system from its parent...</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -835,24 +799,24 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://in.indeed.com/jobs?q=Management+Jobs&amp;l=&amp;from=searchOnHP&amp;vjk=19d444c38cadf2f1</t>
+          <t>https://in.indeed.com/jobs?q=Management+Jobs&amp;l=&amp;from=searchOnHP&amp;vjk=f024deb69b1b27f6</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HR Manager</t>
+          <t>Assistant Manager - Solar Asset Management - O&amp;M</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Exotic India Art Pvt. Ltd.</t>
+          <t>ENGIE Energy and Services India Private Limited</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Delhi, Delhi</t>
+          <t>Pune, Maharashtra</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -862,38 +826,34 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Urgent hiring for work , every employer who is interested in this job. Contact urgently
-Job Types: Full-time, Part-time, Fresher, Freelance
-Contract length: 2 months
-Pay: From ₹19,500.00 per month
-Exp...</t>
+          <t>K-ONN INDIA LLP is a company bubbling with possibilities. Committed to make things happen through quality, innovation and affordability, K-ONN straightaway has imbibed its value system from its parent...</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>₹70,000 - ₹90,000 a month</t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://in.indeed.com/jobs?q=Management+Jobs&amp;l=&amp;from=searchOnHP&amp;vjk=19d444c38cadf2f1</t>
+          <t>https://in.indeed.com/jobs?q=Management+Jobs&amp;l=&amp;from=searchOnHP&amp;vjk=f024deb69b1b27f6</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Area Manager - Operations</t>
+          <t>Administration Assistant Manager</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Amazon.com</t>
+          <t>Nando's</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Gurgaon Road, Delhi, Delhi</t>
+          <t>Gurugram, Haryana</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -903,38 +863,34 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Urgent hiring for work , every employer who is interested in this job. Contact urgently
-Job Types: Full-time, Part-time, Fresher, Freelance
-Contract length: 2 months
-Pay: From ₹19,500.00 per month
-Exp...</t>
+          <t>K-ONN INDIA LLP is a company bubbling with possibilities. Committed to make things happen through quality, innovation and affordability, K-ONN straightaway has imbibed its value system from its parent...</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>₹80,000 - ₹1,00,000 a month</t>
+          <t>₹40,000.00 - ₹55,521.17 a month</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://in.indeed.com/jobs?q=Management+Jobs&amp;l=&amp;from=searchOnHP&amp;vjk=19d444c38cadf2f1</t>
+          <t>https://in.indeed.com/jobs?q=Management+Jobs&amp;l=&amp;from=searchOnHP&amp;vjk=f024deb69b1b27f6</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ashram Supervisor</t>
+          <t>Area Manager - Operations</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Shriram Tinplate Resources Pvt. Ltd</t>
+          <t>Amazon.com</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Vrindavan, Uttar Pradesh</t>
+          <t>Gurgaon Road, Delhi, Delhi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -944,38 +900,34 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Urgent hiring for work , every employer who is interested in this job. Contact urgently
-Job Types: Full-time, Part-time, Fresher, Freelance
-Contract length: 2 months
-Pay: From ₹19,500.00 per month
-Exp...</t>
+          <t>K-ONN INDIA LLP is a company bubbling with possibilities. Committed to make things happen through quality, innovation and affordability, K-ONN straightaway has imbibed its value system from its parent...</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>₹16,000 - ₹20,000 a month</t>
+          <t>₹80,000 - ₹1,00,000 a month</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://in.indeed.com/jobs?q=Management+Jobs&amp;l=&amp;from=searchOnHP&amp;vjk=19d444c38cadf2f1</t>
+          <t>https://in.indeed.com/jobs?q=Management+Jobs&amp;l=&amp;from=searchOnHP&amp;vjk=f024deb69b1b27f6</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>E-Commerce Manager</t>
+          <t>Gl. Change Mgr., Service Support - Tech</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>EOX ELECTRIC</t>
+          <t>Sandoz</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Dwarka, Delhi, Delhi</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -985,38 +937,34 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Urgent hiring for work , every employer who is interested in this job. Contact urgently
-Job Types: Full-time, Part-time, Fresher, Freelance
-Contract length: 2 months
-Pay: From ₹19,500.00 per month
-Exp...</t>
+          <t>K-ONN INDIA LLP is a company bubbling with possibilities. Committed to make things happen through quality, innovation and affordability, K-ONN straightaway has imbibed its value system from its parent...</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>₹30,000 - ₹50,000 a month</t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://in.indeed.com/jobs?q=Management+Jobs&amp;l=&amp;from=searchOnHP&amp;vjk=19d444c38cadf2f1</t>
+          <t>https://in.indeed.com/jobs?q=Management+Jobs&amp;l=&amp;from=searchOnHP&amp;vjk=f024deb69b1b27f6</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Accounts Manager</t>
+          <t>HR Manager</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sakshem IT Solution Pvt Ltd</t>
+          <t>Exotic India Art Pvt. Ltd.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Janakpuri, Delhi, Delhi</t>
+          <t>Delhi, Delhi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1026,38 +974,34 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Urgent hiring for work , every employer who is interested in this job. Contact urgently
-Job Types: Full-time, Part-time, Fresher, Freelance
-Contract length: 2 months
-Pay: From ₹19,500.00 per month
-Exp...</t>
+          <t>K-ONN INDIA LLP is a company bubbling with possibilities. Committed to make things happen through quality, innovation and affordability, K-ONN straightaway has imbibed its value system from its parent...</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>₹45,000 - ₹50,000 a month</t>
+          <t>₹70,000 - ₹90,000 a month</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://in.indeed.com/jobs?q=Management+Jobs&amp;l=&amp;from=searchOnHP&amp;vjk=19d444c38cadf2f1</t>
+          <t>https://in.indeed.com/jobs?q=Management+Jobs&amp;l=&amp;from=searchOnHP&amp;vjk=f024deb69b1b27f6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Director of Product Test Hardware</t>
+          <t>E-Commerce Manager</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Infineon Technologies</t>
+          <t>EOX ELECTRIC</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Bengaluru, Karnataka</t>
+          <t>Dwarka, Delhi, Delhi</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1067,21 +1011,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Urgent hiring for work , every employer who is interested in this job. Contact urgently
-Job Types: Full-time, Part-time, Fresher, Freelance
-Contract length: 2 months
-Pay: From ₹19,500.00 per month
-Exp...</t>
+          <t>K-ONN INDIA LLP is a company bubbling with possibilities. Committed to make things happen through quality, innovation and affordability, K-ONN straightaway has imbibed its value system from its parent...</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Not specified</t>
+          <t>₹30,000 - ₹50,000 a month</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://in.indeed.com/jobs?q=Management+Jobs&amp;l=&amp;from=searchOnHP&amp;vjk=19d444c38cadf2f1</t>
+          <t>https://in.indeed.com/jobs?q=Management+Jobs&amp;l=&amp;from=searchOnHP&amp;vjk=f024deb69b1b27f6</t>
         </is>
       </c>
     </row>
